--- a/아이템 리스트_008.xlsx
+++ b/아이템 리스트_008.xlsx
@@ -1999,6 +1999,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2009,12 +2015,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2301,7 +2301,7 @@
   <dimension ref="B2:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:D82"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4185,11 +4185,11 @@
       <c r="P2" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
       <c r="T2" s="7" t="s">
         <v>237</v>
       </c>
@@ -4218,7 +4218,7 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="39" t="s">
         <v>248</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -4252,7 +4252,7 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="40" t="s">
         <v>249</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -4286,7 +4286,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="40" t="s">
         <v>250</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -4320,7 +4320,7 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>251</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -4354,7 +4354,7 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="40" t="s">
         <v>252</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4939,11 +4939,11 @@
         <f t="shared" si="0"/>
         <v>2435</v>
       </c>
-      <c r="Q25" s="41" t="s">
+      <c r="Q25" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
@@ -4985,11 +4985,11 @@
         <f t="shared" si="0"/>
         <v>2435</v>
       </c>
-      <c r="Q26" s="42" t="s">
+      <c r="Q26" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
@@ -5031,11 +5031,11 @@
         <f t="shared" si="0"/>
         <v>2435</v>
       </c>
-      <c r="Q27" s="41" t="s">
+      <c r="Q27" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
